--- a/working_df.xlsx
+++ b/working_df.xlsx
@@ -1,64 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kijah\Documents\Data_Bootcamp\Estimator_Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF578211-8F7C-4593-BB71-DCBFD969947E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
-  <si>
-    <t>Manufactures Description</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+  <si>
+    <t>Material Description</t>
+  </si>
+  <si>
+    <t>Material Price</t>
+  </si>
+  <si>
+    <t>Vendor Location</t>
   </si>
   <si>
     <t>link</t>
   </si>
   <si>
-    <t>Material Price</t>
-  </si>
-  <si>
-    <t>Common_name</t>
-  </si>
-  <si>
-    <t>Vendor Location</t>
-  </si>
-  <si>
-    <t>1/2 In. X 10 Ft. Electric Metallic Tube (Emt) Conduit</t>
-  </si>
-  <si>
-    <t>3/4 In. X 10 Ft. Electric Metallic Tube (Emt) Conduit</t>
+    <t>1/2 in. x 10 ft. Electric Metallic Tube (EMT) Conduit</t>
+  </si>
+  <si>
+    <t>3/4 in. x 10 ft. Electric Metallic Tube (EMT) Conduit</t>
   </si>
   <si>
     <t>1 in. x 10 ft. Electric Metallic Tube (EMT) Conduit</t>
   </si>
   <si>
-    <t>Halex 1 in. Electrical Metallic Tube (EMT) Set-Screw Coupling ...</t>
-  </si>
-  <si>
-    <t>3/4 in. Standard Fitting Electric Metallic Tube (EMT) Set- ...</t>
+    <t>1/2 in. Electric Metallic Tube (EMT) Set-Screw Coupling (5-Pack)</t>
+  </si>
+  <si>
+    <t>3/4 in. Standard Fitting Electric Metallic Tube (EMT) Set-Screw Coupling (5-Pack)</t>
   </si>
   <si>
     <t>1 in. Electric Metallic Tube (EMT) Set-Screw Coupling</t>
   </si>
   <si>
-    <t>Halex 1/2 in. Electrical Metallic Tube (EMT) Set-Screw ...</t>
-  </si>
-  <si>
-    <t>Halex 3/4 in. Electrical Metallic Tube (EMT) Set-Screw ...</t>
+    <t>1/2 in. Electrical Metallic Tube (EMT) Set-Screw Connectors (5-Pack)</t>
+  </si>
+  <si>
+    <t>3/4 in. Electrical Metallic Tube (EMT) Set-Screw Connector (5-Pack)</t>
   </si>
   <si>
     <t>1 in. Electrical Metallic Tube (EMT) Set-Screw Connector</t>
   </si>
   <si>
-    <t>14 2 Romex Indiana OTHER Industrial Wires &amp; Cables</t>
+    <t>250 ft. 14/2 Romex SIMpull Solid NM-B W/G Wire</t>
   </si>
   <si>
     <t>250 ft. 14/3 Solid Romex SIMpull CU NM-B W/G Wire</t>
@@ -67,16 +70,31 @@
     <t>250 ft. 12/2 Solid Romex SIMpull CU NM-B W/G Wire</t>
   </si>
   <si>
-    <t>250 ft. 12/3 Romex® SIMpull® NM-B W/G Wire - QC Supply</t>
-  </si>
-  <si>
-    <t>500 ft. 4 Black Stranded CU SIMpull THHN Wire</t>
-  </si>
-  <si>
-    <t>500 ft. 6 Black Stranded CU SIMpull THHN Wire</t>
-  </si>
-  <si>
-    <t>10 AWG THHN/THWN-2 Stranded Wire - sold by the spool</t>
+    <t>250 ft. 12/3 Solid Romex SIMpull CU NM-B W/G Wire</t>
+  </si>
+  <si>
+    <t>500 ft. 4 Gauge Black Stranded Copper THHN Wire</t>
+  </si>
+  <si>
+    <t>500 ft. 6 Gauge Black Stranded Copper THHN Wire</t>
+  </si>
+  <si>
+    <t>500 ft. 10 Gauge Black Stranded Copper THHN Wire</t>
+  </si>
+  <si>
+    <t>ebay</t>
+  </si>
+  <si>
+    <t>ebarnett</t>
+  </si>
+  <si>
+    <t>homedepot</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>dkhardware</t>
   </si>
   <si>
     <t>https://www.ebay.com/p/1700352648</t>
@@ -88,15 +106,18 @@
     <t>https://www.homedepot.com/p/1-in-x-10-ft-Electric-Metallic-Tube-EMT-Conduit-101568/100400409</t>
   </si>
   <si>
+    <t>https://dslsupply.com/halex-1-2-in-electrical-metallic-tube-emt-set-screw-coupling-5-pack-part-26280/</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Halex-3-4-in-Electric-Metallic-Tube-EMT-Set-Screw-Coupling-5-Pack-26282/202288508</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Halex-1-in-Electric-Metallic-Tube-EMT-Set-Screw-Coupling-62810/202241090</t>
+  </si>
+  <si>
     <t>https://www.amazon.com/Halex-26270-STEEL-CONNECTOR-Silver/dp/B00L2J46LW</t>
   </si>
   <si>
-    <t>https://www.homedepot.com/p/Halex-3-4-in-Electric-Metallic-Tube-EMT-Set-Screw-Coupling-5-Pack-26282/202288508</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Halex-1-in-Electric-Metallic-Tube-EMT-Set-Screw-Coupling-62810/202241090</t>
-  </si>
-  <si>
     <t>https://www.homedepot.com/p/Halex-3-4-in-Electrical-Metallic-Tube-EMT-Set-Screw-Connectors-5-Pack-26272/100163157</t>
   </si>
   <si>
@@ -124,59 +145,14 @@
     <t>https://www.amazon.com/Gauge-Stranded-Copper-Building-Wire/dp/B08DZMFZTR</t>
   </si>
   <si>
-    <t>1/2 in. x 10 ft. Electric Metallic Tube (EMT) Conduit</t>
-  </si>
-  <si>
-    <t>3/4 in. x 10 ft. Electric Metallic Tube (EMT) Conduit</t>
-  </si>
-  <si>
-    <t>1/2 in. Electric Metallic Tube (EMT) Set-Screw Coupling (5-Pack)</t>
-  </si>
-  <si>
-    <t>3/4 in. Standard Fitting Electric Metallic Tube (EMT) Set-Screw Coupling (5-Pack)</t>
-  </si>
-  <si>
-    <t>1/2 in. Electrical Metallic Tube (EMT) Set-Screw Connectors (5-Pack)</t>
-  </si>
-  <si>
-    <t>3/4 in. Electrical Metallic Tube (EMT) Set-Screw Connector (5-Pack)</t>
-  </si>
-  <si>
-    <t>250 ft. 14/2 Romex SIMpull Solid NM-B W/G Wire</t>
-  </si>
-  <si>
-    <t>250 ft. 12/3 Solid Romex SIMpull CU NM-B W/G Wire</t>
-  </si>
-  <si>
-    <t>500 ft. 4 Gauge Black Stranded Copper THHN Wire</t>
-  </si>
-  <si>
-    <t>500 ft. 6 Gauge Black Stranded Copper THHN Wire</t>
-  </si>
-  <si>
-    <t>500 ft. 10 Gauge Black Stranded Copper THHN Wire</t>
-  </si>
-  <si>
-    <t>ebay</t>
-  </si>
-  <si>
-    <t>ebarnett</t>
-  </si>
-  <si>
-    <t>homedepot</t>
-  </si>
-  <si>
-    <t>amazon</t>
-  </si>
-  <si>
-    <t>dkhardware</t>
+    <t>16 ITEMED LIST RETURNED WITH THE LOWEST PRICES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,21 +175,50 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -223,11 +228,140 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -239,12 +373,28 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -252,6 +402,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -298,7 +456,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,9 +488,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,6 +540,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -539,321 +733,285 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="64.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="102.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="21.4" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="B3" s="6">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="7">
+        <v>8.36</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2">
-        <v>4.73</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D4" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>8.9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2.98</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7">
+        <v>3.98</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="7">
+        <v>90</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="7">
+        <v>157</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="7">
+        <v>149</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="7">
+        <v>289</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C3">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="7">
+        <v>613.64</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C4">
-        <v>8.9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5">
-        <v>2.1</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6">
-        <v>2.98</v>
-      </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="7">
+        <v>355.5</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7">
-        <v>1.15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8">
-        <v>3.98</v>
-      </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="13">
+        <v>145</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9">
-        <v>4.6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10">
-        <v>1.6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11">
-        <v>90</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12">
-        <v>158</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13">
-        <v>149</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14">
-        <v>289</v>
-      </c>
-      <c r="D14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15">
-        <v>613.64</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16">
-        <v>355.5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17">
-        <v>145</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>